--- a/Scanning/L+R_eye_check/Orders_PILOT/PAR14_RUN01.xlsx
+++ b/Scanning/L+R_eye_check/Orders_PILOT/PAR14_RUN01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edeligia\Documents\GitHub\3D_Faces_ED\Scanning\L+R_eye_check\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Documents\GitHub\3D_Faces_ED\Scanning\L+R_eye_check\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2BDE68-9EDA-4C4C-8430-C3BEB19C5F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9045" windowHeight="10215"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24510" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,14 +389,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
